--- a/学期班级分布表.xlsx
+++ b/学期班级分布表.xlsx
@@ -52,7 +52,7 @@
   <si>
     <t>2408
 23平面设计2班
-白云太</t>
+刘帅</t>
   </si>
   <si>
     <t>2410
@@ -131,7 +131,7 @@
   <si>
     <t>2208                 
 22电子商务4班
-白云太</t>
+王临泰</t>
   </si>
   <si>
     <t>2210                
@@ -1250,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/学期班级分布表.xlsx
+++ b/学期班级分布表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>三河职教中心北教学楼平面图</t>
   </si>
@@ -89,74 +89,44 @@
 杨晴（教官）</t>
   </si>
   <si>
-    <t>2308                
-22网安2班
-郭晗</t>
-  </si>
-  <si>
-    <t>2310                 
-22网安1班
-贾红霞</t>
-  </si>
-  <si>
-    <t>2312                  
-22电子商务一班
-周龙凯</t>
-  </si>
-  <si>
-    <t>2303                
-22平面设计二班
-李连花</t>
-  </si>
-  <si>
-    <t>2305                 
-22平面设计一班
-葛俞珊</t>
-  </si>
-  <si>
-    <t>2307                
-22平面设计3班
-刘秀艳</t>
-  </si>
-  <si>
-    <t>2311                 
-22电子商务二班
-吕怀秀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2206                 
-22电子商务3班
-贾硕丰 </t>
-  </si>
-  <si>
-    <t>2208                 
-22电子商务4班
-王临泰</t>
-  </si>
-  <si>
-    <t>2210                
-22多媒体二班
-李连花</t>
-  </si>
-  <si>
-    <t>2201                
-22软件1班
-刘旭</t>
-  </si>
-  <si>
-    <t>2203                 
-22软件2班
-孙金波</t>
-  </si>
-  <si>
-    <t>2205                   
-22多媒体3班
-王建军</t>
-  </si>
-  <si>
-    <t>2207                 
-22多媒体一班
-周龙凯</t>
+    <t>2304               2024级网络信息安全2班     
+白云太</t>
+  </si>
+  <si>
+    <t>2308               2024级计算机平面2班     谭 姝</t>
+  </si>
+  <si>
+    <t>2312                2024级计算机平面4班     孙金波</t>
+  </si>
+  <si>
+    <t>2303               2024级网络信息安全1班     杨 赛</t>
+  </si>
+  <si>
+    <t>2307              2024级计算机平面1班     曹春梅</t>
+  </si>
+  <si>
+    <t>2311                2024级计算机平面3班     刘 帅</t>
+  </si>
+  <si>
+    <t>2204              2024多媒体制作1班     王临泰</t>
+  </si>
+  <si>
+    <t>2206               2024多媒体制作2班          周龙凯</t>
+  </si>
+  <si>
+    <t>2208               2024多媒体制作3班          吕春雷</t>
+  </si>
+  <si>
+    <t>2212               2024级电子商务2班      孟 思</t>
+  </si>
+  <si>
+    <t>2201               2024级数字媒体1班     白云太</t>
+  </si>
+  <si>
+    <t>2205              2024级数字媒体2班     田家丞</t>
+  </si>
+  <si>
+    <t>2209                 2024级电子商务1班      葛俞珊</t>
   </si>
   <si>
     <t>政教处</t>
@@ -1251,7 +1221,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1260,7 +1230,7 @@
     <col min="2" max="2" width="6.90740740740741" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.37037037037037" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.1851851851852" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="13.9074074074074" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
@@ -1362,7 +1332,9 @@
       <c r="C5" s="7">
         <v>2401</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <v>2403</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
         <v>11</v>
@@ -1421,8 +1393,8 @@
       <c r="C8" s="11">
         <v>2302</v>
       </c>
-      <c r="D8" s="11">
-        <v>2304</v>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
@@ -1430,11 +1402,11 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>15</v>
+      <c r="J8" s="11">
+        <v>2310</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11" t="s">
@@ -1492,18 +1464,20 @@
         <v>17</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
+      <c r="F11" s="11">
+        <v>2305</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11">
+        <v>2309</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="11"/>
     </row>
@@ -1547,8 +1521,8 @@
       <c r="C14" s="16">
         <v>2202</v>
       </c>
-      <c r="D14" s="16">
-        <v>2204</v>
+      <c r="D14" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="s">
@@ -1559,12 +1533,12 @@
         <v>22</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="16">
+        <v>2210</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16">
-        <v>2212</v>
       </c>
       <c r="M14" s="16"/>
     </row>
@@ -1616,20 +1590,20 @@
         <v>24</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>25</v>
+      <c r="F17" s="16">
+        <v>2203</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16">
+        <v>2207</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
-        <v>2209</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -1671,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="23">
         <v>2102</v>
@@ -1738,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="22">
         <v>2101</v>
@@ -1753,7 +1727,7 @@
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
